--- a/assets/test run.xlsx
+++ b/assets/test run.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://killa-my.sharepoint.com/personal/adnan_a_killadesign_com/Documents/github repositories/beam-scheduler/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D707297E-1F12-458B-ACDD-FAE1C43D3EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{D707297E-1F12-458B-ACDD-FAE1C43D3EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFC6C8CC-672F-4A50-8374-CCDE651A7337}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{94B69E47-77BA-400F-B9B3-C210F3A7100E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{94B69E47-77BA-400F-B9B3-C210F3A7100E}"/>
   </bookViews>
   <sheets>
     <sheet name="Conc Bm Flx Env - ACI 318-19" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="189">
   <si>
     <t>TABLE:  Concrete Beam Flexure Envelope - ACI 318-19</t>
   </si>
@@ -600,6 +600,12 @@
   </si>
   <si>
     <t>ACI 318-19</t>
+  </si>
+  <si>
+    <t>O/S</t>
+  </si>
+  <si>
+    <t>o/s</t>
   </si>
 </sst>
 </file>
@@ -728,6 +734,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1049,9 +1059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F066BA52-D248-4A5A-9216-5E62DE6C9012}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,22 +1251,22 @@
         <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="G6">
         <v>-493.41680000000002</v>
       </c>
-      <c r="H6">
-        <v>2286</v>
+      <c r="H6" t="s">
+        <v>188</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="J6">
         <v>404.35270000000003</v>
       </c>
-      <c r="K6">
-        <v>2286</v>
+      <c r="K6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4006,7 +4016,7 @@
         <v>19</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="G85">
         <v>-613.32860000000005</v>
@@ -4015,7 +4025,7 @@
         <v>2286</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="J85">
         <v>306.66430000000003</v>
@@ -9672,7 +9682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815DCE3F-F030-4FF2-A3A4-BA0D0E5F5E9B}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>

--- a/assets/test run.xlsx
+++ b/assets/test run.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://killa-my.sharepoint.com/personal/adnan_a_killadesign_com/Documents/github repositories/beam-scheduler/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{D707297E-1F12-458B-ACDD-FAE1C43D3EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFC6C8CC-672F-4A50-8374-CCDE651A7337}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{D707297E-1F12-458B-ACDD-FAE1C43D3EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BED54F4-6322-4139-A561-B20CEEE9D149}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{94B69E47-77BA-400F-B9B3-C210F3A7100E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{94B69E47-77BA-400F-B9B3-C210F3A7100E}"/>
   </bookViews>
   <sheets>
     <sheet name="Conc Bm Flx Env - ACI 318-19" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="189">
   <si>
     <t>TABLE:  Concrete Beam Flexure Envelope - ACI 318-19</t>
   </si>
@@ -1059,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F066BA52-D248-4A5A-9216-5E62DE6C9012}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
@@ -4743,8 +4743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADADCC8-FF0F-4D50-A6BE-F525FBEF09F1}">
   <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4990,7 +4990,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="G6">
         <v>483.05720000000002</v>
@@ -5002,7 +5002,7 @@
         <v>1365.72</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="K6">
         <v>521.83640000000003</v>
@@ -5083,9 +5083,6 @@
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="G8">
         <v>1286.9110000000001</v>
       </c>
@@ -5142,9 +5139,6 @@
       <c r="I9">
         <v>3423.66</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="K9">
         <v>11.1761</v>
       </c>
@@ -5470,9 +5464,6 @@
       </c>
       <c r="I16">
         <v>2983.31</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="K16">
         <v>14.855399999999999</v>
